--- a/Graphs.xlsx
+++ b/Graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aksha\OneDrive\Desktop\Data Science Material\ML + Python Notes\Bagging on Low Variance Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC0AA687-E371-4053-8568-F15952195AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC2375B-0D8B-4A76-82F4-77F6CC6AD1E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{96C7956F-8472-4CE3-A13E-D3F061C60FF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{96C7956F-8472-4CE3-A13E-D3F061C60FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -970,34 +969,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.4092974268256817</c:v>
+                  <c:v>0.90929742682568171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2431975046920718</c:v>
+                  <c:v>4.2431975046920716</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2205845018010741</c:v>
+                  <c:v>9.7205845018010741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9893582466233819</c:v>
+                  <c:v>12.989358246623382</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9559788891106302</c:v>
+                  <c:v>13.45597888911063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4634270819995652</c:v>
+                  <c:v>15.463427081999566</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4906073556948707</c:v>
+                  <c:v>17.99060735569487</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7120966833349347</c:v>
+                  <c:v>17.712096683334934</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7490127532283237</c:v>
+                  <c:v>18.249012753228325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9129452507276277</c:v>
+                  <c:v>16.912945250727628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3850,8 +3849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2633FBF9-89C7-4C8C-9462-B0F798EEA508}">
   <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3873,10 +3872,10 @@
       </c>
       <c r="B3">
         <f>SIN(A3)+C3</f>
-        <v>1.4092974268256817</v>
+        <v>0.90929742682568171</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,10 +3884,10 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B12" si="0">SIN(A4)+C4</f>
-        <v>0.2431975046920718</v>
+        <v>4.2431975046920716</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3897,10 +3896,10 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1.2205845018010741</v>
+        <v>9.7205845018010741</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3909,10 +3908,10 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>2.9893582466233819</v>
+        <v>12.989358246623382</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3921,10 +3920,10 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>1.9559788891106302</v>
+        <v>13.45597888911063</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,10 +3932,10 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>2.4634270819995652</v>
+        <v>15.463427081999566</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3945,10 +3944,10 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>4.4906073556948707</v>
+        <v>17.99060735569487</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3957,10 +3956,10 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>3.7120966833349347</v>
+        <v>17.712096683334934</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3969,10 +3968,10 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>3.7490127532283237</v>
+        <v>18.249012753228325</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3981,10 +3980,10 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>5.9129452507276277</v>
+        <v>16.912945250727628</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +3996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5C6A58-CF2D-41F7-9E2E-C22BE85FE7FA}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
